--- a/biology/Histoire de la zoologie et de la botanique/John_Hull/John_Hull.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Hull/John_Hull.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Hull (1761–1843) est un médecin et botaniste britannique, né à Poulton (Lancashire) en Grande-Bretagne.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie succincte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En soutenant une thèse intitulée De catharticis, il obtient son titre de Docteur en médecine à l'Université de Leyde en mai 1792. 
 Il s'installe alors à Manchester où il exerce comme accoucheur puis il devient médecin à la Maternité
@@ -547,7 +561,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dictionary of National Biography, 1885-1900, Volume 28, Hull, John by George Simonds Boulger
 John Hull ; page wikipédia en espagnol</t>
